--- a/inst/extdata/test_data/FAO_ISO_MW_Mapping.xlsx
+++ b/inst/extdata/test_data/FAO_ISO_MW_Mapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earzm\Documents\Github\MWTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MWTools\inst\extdata\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8E979-58F1-465E-9FA9-6BA4FF2EED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -873,9 +874,6 @@
     <t>HKG</t>
   </si>
   <si>
-    <t>CHN</t>
-  </si>
-  <si>
     <t>TWN</t>
   </si>
   <si>
@@ -1402,12 +1400,15 @@
   </si>
   <si>
     <t>AMW.Region.code</t>
+  </si>
+  <si>
+    <t>CHNM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2206,29 +2207,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206:F240"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>277</v>
@@ -2237,290 +2238,290 @@
         <v>278</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>258</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>262</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>263</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>282</v>
@@ -2532,131 +2533,131 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>264</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>270</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>248</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>265</v>
@@ -2665,185 +2666,185 @@
         <v>265</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>272</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>282</v>
@@ -2855,233 +2856,233 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>284</v>
+        <v>460</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>284</v>
+        <v>460</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>282</v>
@@ -3093,250 +3094,250 @@
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>268</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>282</v>
@@ -3348,1865 +3349,1865 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>282</v>
@@ -5218,505 +5219,505 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="F205" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>282</v>
@@ -5728,12 +5729,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>282</v>
@@ -5745,12 +5746,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>282</v>
@@ -5762,12 +5763,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>282</v>
@@ -5779,12 +5780,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>282</v>
@@ -5796,12 +5797,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>282</v>
@@ -5813,12 +5814,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>282</v>
@@ -5830,12 +5831,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>282</v>
@@ -5847,12 +5848,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>282</v>
@@ -5864,12 +5865,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>282</v>
@@ -5881,12 +5882,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>282</v>
@@ -5898,12 +5899,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>282</v>
@@ -5915,12 +5916,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>282</v>
@@ -5932,12 +5933,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>282</v>
@@ -5949,12 +5950,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>282</v>
@@ -5966,12 +5967,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>282</v>
@@ -5983,12 +5984,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>282</v>
@@ -6000,12 +6001,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>282</v>
@@ -6017,12 +6018,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>282</v>
@@ -6034,12 +6035,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>282</v>
@@ -6051,12 +6052,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>282</v>
@@ -6068,12 +6069,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>282</v>
@@ -6085,12 +6086,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>282</v>
@@ -6102,12 +6103,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>282</v>
@@ -6119,12 +6120,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>282</v>
@@ -6136,12 +6137,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>282</v>
@@ -6153,12 +6154,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>282</v>
@@ -6170,12 +6171,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>282</v>
@@ -6187,12 +6188,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>282</v>
@@ -6204,12 +6205,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>282</v>
@@ -6221,12 +6222,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>282</v>
@@ -6238,12 +6239,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>282</v>
@@ -6255,12 +6256,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>282</v>
@@ -6272,12 +6273,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>282</v>
@@ -6289,12 +6290,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>282</v>

--- a/inst/extdata/test_data/FAO_ISO_MW_Mapping.xlsx
+++ b/inst/extdata/test_data/FAO_ISO_MW_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MWTools\inst\extdata\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8E979-58F1-465E-9FA9-6BA4FF2EED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44720B-402D-4FB6-9859-5F4064ECE83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2211,7 +2211,7 @@
   <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2884,7 +2884,7 @@
         <v>460</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>458</v>
